--- a/data/isotopes_peak_maps.xlsx
+++ b/data/isotopes_peak_maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/csci/tristan_d2o/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEF1D43-CEA5-9A4D-A994-C18B68DFC057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74EFD5E-ED47-F046-8A49-0E1CA2754611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1460" windowWidth="11260" windowHeight="16060" xr2:uid="{4027AF5D-02E2-5C4E-BB2B-6DE8EED52031}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{4027AF5D-02E2-5C4E-BB2B-6DE8EED52031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="25">
   <si>
     <t>compound</t>
   </si>
@@ -75,13 +75,37 @@
     <t>C16:1 cis</t>
   </si>
   <si>
-    <t>me-17:0</t>
-  </si>
-  <si>
     <t>cyc-17</t>
   </si>
   <si>
     <t>C18:2</t>
+  </si>
+  <si>
+    <t>C18:1 cis</t>
+  </si>
+  <si>
+    <t>C18:1 trans</t>
+  </si>
+  <si>
+    <t>C18:0 -me</t>
+  </si>
+  <si>
+    <t>C17:0 -me</t>
+  </si>
+  <si>
+    <t>cyc-19</t>
+  </si>
+  <si>
+    <t>C20:0</t>
+  </si>
+  <si>
+    <t>C22:0</t>
+  </si>
+  <si>
+    <t>alkane</t>
+  </si>
+  <si>
+    <t>C24:0</t>
   </si>
 </sst>
 </file>
@@ -440,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BCAF4-A8C0-EF47-AB16-029D85E25204}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -782,7 +806,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2">
         <v>1512.951</v>
@@ -822,7 +846,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2">
         <v>1557.886</v>
@@ -878,7 +902,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2">
         <v>1643.367</v>
@@ -886,7 +910,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2">
         <v>1654.444</v>
@@ -894,7 +918,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2">
         <v>1660.087</v>
@@ -926,7 +950,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2">
         <v>1723.2049999999999</v>
@@ -942,7 +966,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2">
         <v>1771.902</v>
@@ -990,7 +1014,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2">
         <v>1883.508</v>
@@ -1062,7 +1086,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2">
         <v>2070.9810000000002</v>
@@ -1094,7 +1118,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2">
         <v>2157.7159999999999</v>
@@ -1126,7 +1150,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2">
         <v>2231.4929999999999</v>
@@ -1134,7 +1158,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2">
         <v>2244.8690000000001</v>
